--- a/forecast_summary_B0BH9DXY38.xlsx
+++ b/forecast_summary_B0BH9DXY38.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C2" t="n">
         <v>293.1578432498557</v>
       </c>
       <c r="D2" t="n">
-        <v>565.0362656247852</v>
+        <v>550.5049009912161</v>
       </c>
       <c r="E2" t="n">
         <v>347</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C3" t="n">
         <v>197.6595645773756</v>
       </c>
       <c r="D3" t="n">
-        <v>446.5324663347041</v>
+        <v>478.4377507380163</v>
       </c>
       <c r="E3" t="n">
         <v>219</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C4" t="n">
         <v>125.5378883457824</v>
       </c>
       <c r="D4" t="n">
-        <v>391.6280016250789</v>
+        <v>380.1849293594464</v>
       </c>
       <c r="E4" t="n">
         <v>273</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>73.63519391784014</v>
       </c>
       <c r="D5" t="n">
-        <v>322.6915478268027</v>
+        <v>331.8192907986505</v>
       </c>
       <c r="E5" t="n">
         <v>199</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n">
         <v>34.65400944169678</v>
       </c>
       <c r="D6" t="n">
-        <v>293.0741937896106</v>
+        <v>305.716465856867</v>
       </c>
       <c r="E6" t="n">
         <v>174</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="n">
         <v>13.26774344816397</v>
       </c>
       <c r="D7" t="n">
-        <v>282.571995284623</v>
+        <v>277.902276348377</v>
       </c>
       <c r="E7" t="n">
         <v>179</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>13.62932360355583</v>
       </c>
       <c r="D8" t="n">
-        <v>280.5368064648652</v>
+        <v>279.6881881569559</v>
       </c>
       <c r="E8" t="n">
         <v>166</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
         <v>24.86828097767065</v>
       </c>
       <c r="D9" t="n">
-        <v>304.0092349283518</v>
+        <v>289.6849446536411</v>
       </c>
       <c r="E9" t="n">
         <v>164</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>30.11470781786679</v>
       </c>
       <c r="D10" t="n">
-        <v>294.4784733988045</v>
+        <v>295.280485327548</v>
       </c>
       <c r="E10" t="n">
         <v>170</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n">
         <v>27.39175435211226</v>
       </c>
       <c r="D11" t="n">
-        <v>300.9628633733749</v>
+        <v>283.4199047731066</v>
       </c>
       <c r="E11" t="n">
         <v>215</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C12" t="n">
         <v>32.01495472410053</v>
       </c>
       <c r="D12" t="n">
-        <v>276.515511550525</v>
+        <v>296.7045081010535</v>
       </c>
       <c r="E12" t="n">
         <v>231</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>55.10685031645109</v>
       </c>
       <c r="D13" t="n">
-        <v>312.4067471839607</v>
+        <v>327.5215045141462</v>
       </c>
       <c r="E13" t="n">
         <v>219</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C14" t="n">
         <v>86.0137555140946</v>
       </c>
       <c r="D14" t="n">
-        <v>337.4250439626121</v>
+        <v>358.7833619875399</v>
       </c>
       <c r="E14" t="n">
         <v>221</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="n">
         <v>102.3652454195479</v>
       </c>
       <c r="D15" t="n">
-        <v>358.4242852788654</v>
+        <v>356.6827626804705</v>
       </c>
       <c r="E15" t="n">
         <v>217</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>95.72989201736112</v>
       </c>
       <c r="D16" t="n">
-        <v>355.9621490127358</v>
+        <v>357.5318304396277</v>
       </c>
       <c r="E16" t="n">
         <v>215</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C17" t="n">
         <v>80.70228833490141</v>
       </c>
       <c r="D17" t="n">
-        <v>343.2022772059989</v>
+        <v>355.8633337184638</v>
       </c>
       <c r="E17" t="n">
         <v>225</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
         <v>76.63499022725219</v>
       </c>
       <c r="D18" t="n">
-        <v>352.4123474685408</v>
+        <v>370.338885628921</v>
       </c>
       <c r="E18" t="n">
         <v>212</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C19" t="n">
         <v>85.54880280075307</v>
       </c>
       <c r="D19" t="n">
-        <v>353.7559469872355</v>
+        <v>372.0753564762512</v>
       </c>
       <c r="E19" t="n">
         <v>208</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>93.01592273824494</v>
       </c>
       <c r="D20" t="n">
-        <v>342.80433949791</v>
+        <v>351.9478883025092</v>
       </c>
       <c r="E20" t="n">
         <v>222</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
         <v>88.56816829645886</v>
       </c>
       <c r="D21" t="n">
-        <v>341.2201928906646</v>
+        <v>346.6672223000984</v>
       </c>
       <c r="E21" t="n">
         <v>208</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>2981</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>1623</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1110</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>396</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
